--- a/Data/xsy/hospital_article_count_xiehe.xlsx
+++ b/Data/xsy/hospital_article_count_xiehe.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pycharm file\pachong\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学习资料\大四\github\GIS_ShiXi\Data\xsy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87F536C-0764-4B8B-8B9F-1E6AEB81E19F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53CDE6B-5D93-4ADC-952E-AC7BF7D648EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3887" yWindow="1953" windowWidth="14400" windowHeight="8180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-660" yWindow="2160" windowWidth="16630" windowHeight="13160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -428,12 +428,19 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.1796875" customWidth="1"/>
+    <col min="2" max="2" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.08984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,7 +457,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -467,7 +474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -484,7 +491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -501,7 +508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -518,7 +525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -535,7 +542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -555,5 +562,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>